--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1727715.08796125</v>
+        <v>-1730270.653451641</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12560720.06231649</v>
+        <v>12561851.30939063</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14977772.34287618</v>
+        <v>14977629.73691197</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +659,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>370.3824725744516</v>
+        <v>349.5844200045841</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.7321536188797</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.464536558263</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.9961436311612</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +750,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>135.0059677968616</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.65963851412519</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>8.915218264396685</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.1429098734102899</v>
       </c>
       <c r="S3" t="n">
-        <v>128.264216864854</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7427643629146</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7875959384519</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>120.4555718972839</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0312564930842</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.803454668018</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.51626366671985</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>89.17712508496183</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>189.8639731922165</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>140.376100803545</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>162.2329337839238</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>82.95003385128123</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>235.9877995782085</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>323.6043411113986</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,19 +1060,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>45.10723554369635</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>28.74476143306016</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>142.6392466435896</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>17.93291608758945</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>26.05155675490768</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1309,7 +1309,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>30.93007019673406</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1531,10 +1531,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,7 +1543,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.294712846222</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -1579,22 +1579,22 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>116.2873251119335</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>152.0741154159464</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>130.2301075198453</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>72.80978492054875</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634828</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>74.20064764874473</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,13 +2056,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>240.0633098883607</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2248,13 +2248,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>34.22340015155946</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,13 +2290,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>178.5134655978075</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>107.1685137621111</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>168.5409172349082</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>126.4267013134143</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>161.355549430153</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>68.57766702465427</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,13 +3007,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>104.1233804225864</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,19 +3193,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308918</v>
       </c>
       <c r="G34" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652651</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,7 +3439,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
         <v>56.98118882652581</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1876.262997637129</v>
+        <v>1901.535346136984</v>
       </c>
       <c r="C2" t="n">
-        <v>1507.300480696717</v>
+        <v>1901.535346136984</v>
       </c>
       <c r="D2" t="n">
-        <v>1149.034782089967</v>
+        <v>1543.269647530233</v>
       </c>
       <c r="E2" t="n">
-        <v>774.9110724188034</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F2" t="n">
-        <v>363.9251676291959</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>363.9251676291959</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>66.21592154951941</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.21592154951941</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>254.0744928369591</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>586.3643121319017</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1035.500977900981</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1566.921495383895</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2111.55476080156</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2612.501248106872</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3005.546484356407</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3252.534341412639</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3310.79607747597</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3200.22583852823</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3200.22583852823</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2946.694380314936</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V2" t="n">
-        <v>2615.631492971365</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W2" t="n">
-        <v>2262.862837701251</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="X2" t="n">
-        <v>2262.862837701251</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="Y2" t="n">
-        <v>2262.862837701251</v>
+        <v>2288.135186201106</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1687.281923832319</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>1512.828894551192</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>1363.894484889941</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>1204.657029884485</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>1058.12247191137</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>921.7528074700963</v>
+        <v>936.5735814686067</v>
       </c>
       <c r="H3" t="n">
-        <v>831.1875160416869</v>
+        <v>846.0716871064742</v>
       </c>
       <c r="I3" t="n">
-        <v>822.1822450675488</v>
+        <v>827.0643955080121</v>
       </c>
       <c r="J3" t="n">
-        <v>915.2516762093034</v>
+        <v>920.7416649986295</v>
       </c>
       <c r="K3" t="n">
-        <v>1152.476982636376</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>1517.778223703861</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1963.424410055474</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>2435.274169813948</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2844.704721461205</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>3153.975768949899</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>3310.79607747597</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>3310.79607747597</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>3181.236262460966</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2988.566803508527</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2760.498524782818</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>2525.346416551075</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>2271.109059822874</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>2063.257559617341</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1855.497260852387</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>794.5308291990336</v>
+        <v>2342.011860380092</v>
       </c>
       <c r="C4" t="n">
-        <v>625.5946462711267</v>
+        <v>2173.075677452186</v>
       </c>
       <c r="D4" t="n">
-        <v>625.5946462711267</v>
+        <v>2022.95903803985</v>
       </c>
       <c r="E4" t="n">
-        <v>477.6815526887336</v>
+        <v>2022.95903803985</v>
       </c>
       <c r="F4" t="n">
-        <v>477.6815526887336</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G4" t="n">
-        <v>309.9732127967294</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H4" t="n">
-        <v>163.7070969704486</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="I4" t="n">
-        <v>66.21592154951941</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J4" t="n">
-        <v>110.9572157501788</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K4" t="n">
-        <v>314.3177428179429</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>630.0756374886839</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M4" t="n">
-        <v>973.3871879897964</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N4" t="n">
-        <v>1313.970173580891</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O4" t="n">
-        <v>1612.537390213391</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P4" t="n">
-        <v>1844.49254089413</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q4" t="n">
-        <v>1921.651183891643</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1831.573279765419</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S4" t="n">
-        <v>1639.79148866217</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="T4" t="n">
-        <v>1639.79148866217</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="U4" t="n">
-        <v>1497.997447446468</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="V4" t="n">
-        <v>1243.312959240581</v>
+        <v>2981.090876160812</v>
       </c>
       <c r="W4" t="n">
-        <v>1243.312959240581</v>
+        <v>2691.673706123851</v>
       </c>
       <c r="X4" t="n">
-        <v>1015.323408342564</v>
+        <v>2463.684155225834</v>
       </c>
       <c r="Y4" t="n">
-        <v>794.5308291990336</v>
+        <v>2463.684155225834</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1327.068749856139</v>
+        <v>985.0367160257426</v>
       </c>
       <c r="C5" t="n">
-        <v>958.1062329157269</v>
+        <v>985.0367160257426</v>
       </c>
       <c r="D5" t="n">
-        <v>958.1062329157269</v>
+        <v>985.0367160257426</v>
       </c>
       <c r="E5" t="n">
-        <v>572.3179803174826</v>
+        <v>985.0367160257426</v>
       </c>
       <c r="F5" t="n">
-        <v>161.332075527875</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>150.3000294132756</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2770.965890795025</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2439.903003451454</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2087.13434818134</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>1713.66858992026</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>1713.66858992026</v>
+        <v>1371.636556089864</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>936.5735814686079</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>846.0716871064755</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>827.0643955080134</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>920.7416649986308</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>431.1278029579779</v>
+        <v>952.9459563751731</v>
       </c>
       <c r="C7" t="n">
-        <v>262.191620030071</v>
+        <v>784.0097734472662</v>
       </c>
       <c r="D7" t="n">
-        <v>112.0749806177353</v>
+        <v>633.8931340349304</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>485.9800404525373</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>339.0900929546269</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4750,7 +4750,7 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T7" t="n">
         <v>1424.011591242373</v>
@@ -4759,16 +4759,16 @@
         <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1169.327103036486</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W7" t="n">
-        <v>879.9099329995254</v>
+        <v>1134.594421205413</v>
       </c>
       <c r="X7" t="n">
-        <v>651.920382101508</v>
+        <v>1134.594421205413</v>
       </c>
       <c r="Y7" t="n">
-        <v>431.1278029579779</v>
+        <v>1134.594421205413</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1941.127034633561</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881544</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4820,34 +4820,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3307.49176495504</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3307.49176495504</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>3053.961288228877</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>3053.961288228877</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W8" t="n">
-        <v>2701.192632958762</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X8" t="n">
-        <v>2327.726874697682</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y8" t="n">
-        <v>2327.726874697682</v>
+        <v>1418.660964416653</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,46 +4887,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>922.6774975139006</v>
+        <v>406.7468436324427</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1614.535711524631</v>
+        <v>1326.594608541191</v>
       </c>
       <c r="V10" t="n">
-        <v>1614.535711524631</v>
+        <v>1326.594608541191</v>
       </c>
       <c r="W10" t="n">
-        <v>1325.11854148767</v>
+        <v>1037.17743850423</v>
       </c>
       <c r="X10" t="n">
-        <v>1325.11854148767</v>
+        <v>809.1878876062126</v>
       </c>
       <c r="Y10" t="n">
-        <v>1104.32596234414</v>
+        <v>588.3953084626825</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1520.445529061503</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>800.6374272687956</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>631.7012443408887</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408887</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408887</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>2079.600600930059</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588918</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.2858920990353</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,22 +5264,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,7 +5288,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068011</v>
@@ -5297,10 +5297,10 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492579</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1268.578514636217</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>915.1035305473721</v>
+        <v>800.5007694647286</v>
       </c>
       <c r="C16" t="n">
-        <v>746.1673476194652</v>
+        <v>631.5645865368217</v>
       </c>
       <c r="D16" t="n">
-        <v>596.0507082071294</v>
+        <v>481.4479471244859</v>
       </c>
       <c r="E16" t="n">
-        <v>596.0507082071294</v>
+        <v>481.4479471244859</v>
       </c>
       <c r="F16" t="n">
-        <v>449.1607607092191</v>
+        <v>334.5579996265756</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>167.3619003414555</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5443,43 +5443,43 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832665</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487569</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487569</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831767</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.30283062588</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.88566058892</v>
+        <v>1430.931364336516</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.896109690902</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473721</v>
+        <v>982.1492342949683</v>
       </c>
     </row>
     <row r="17">
@@ -5504,25 +5504,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5531,34 +5531,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239597</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397185</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1522.21291626627</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>2149.810879820877</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.9288273958739</v>
+        <v>560.7825789706077</v>
       </c>
       <c r="C19" t="n">
-        <v>633.992644467967</v>
+        <v>391.8463960427008</v>
       </c>
       <c r="D19" t="n">
-        <v>483.8760050556313</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>335.9629114732381</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="F19" t="n">
-        <v>335.9629114732381</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G19" t="n">
-        <v>168.7668121881181</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H19" t="n">
-        <v>168.7668121881181</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5680,7 +5680,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5689,13 +5689,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487568</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369644</v>
+        <v>963.2236229443776</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261136</v>
+        <v>742.4310438008474</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.55866301478</v>
@@ -5774,28 +5774,28 @@
         <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273906</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L21" t="n">
-        <v>506.2737913123336</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>443.4949469776664</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>295.5818533952732</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>295.5818533952732</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>128.3857541101532</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5938,22 +5938,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.033022579363</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662386</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819251</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="24">
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>740.5562989961526</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1368.15426255076</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>1920.063992790047</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2271.666355830531</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2052.064890853472</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1762.98966419767</v>
+        <v>1874.263433515775</v>
       </c>
       <c r="V25" t="n">
-        <v>1508.305175991783</v>
+        <v>1619.578945309888</v>
       </c>
       <c r="W25" t="n">
-        <v>1508.305175991783</v>
+        <v>1330.161775272927</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.315625093766</v>
+        <v>1102.17222437491</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>881.3796452313798</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6242,34 +6242,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N27" t="n">
-        <v>1731.250242493492</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>847.644273983533</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
         <v>402.7245934908938</v>
@@ -6376,58 +6376,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1016.58045691144</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1016.58045691144</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6437,49 +6437,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>710.2486053718725</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>768.5380889459582</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C31" t="n">
-        <v>599.6019060180513</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D31" t="n">
-        <v>530.3315352860773</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E31" t="n">
-        <v>382.4184417036842</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1170.979132919728</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y31" t="n">
-        <v>950.1865537761979</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="32">
@@ -6680,40 +6680,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384027</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
         <v>483.825546038073</v>
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>1176.533952578166</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1804.131916132773</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.221455958011</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345472</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384016</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
         <v>483.8255460380726</v>
       </c>
       <c r="L37" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,28 +7117,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7257,22 +7257,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M39" t="n">
-        <v>923.0670414349511</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1550.665004989558</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O39" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,58 +7306,58 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7451,7 +7451,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M42" t="n">
-        <v>1074.481071167373</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384022</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
@@ -7570,10 +7570,10 @@
         <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,10 +7658,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>634.5603720565526</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683105</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979287</v>
@@ -7819,13 +7819,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5463950602909904</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.308775558570233e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>11.54789749781014</v>
+        <v>32.34595006767768</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9338715566937</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>42.04518470759564</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9711388310543</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,19 +22702,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>59.37640828465335</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22753,25 +22753,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5722280944081</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>145.8360345784709</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22838,7 +22838,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>15.00737238069346</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -22850,7 +22850,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>62.633597544655</v>
       </c>
     </row>
     <row r="6">
@@ -22948,7 +22948,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>101.3267271028728</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23467,22 +23467,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>101.1181252153548</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>66.51053793614838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>35.29403077242353</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>67.48492792567511</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272852</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>7.065188669820785</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>46.45968844823028</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,13 +24136,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>106.0713126946644</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24178,13 +24178,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>73.62417772602052</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>73.85777223953347</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>117.6435571543359</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>99.28295407562284</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>57.22910392194177</v>
       </c>
     </row>
     <row r="29">
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>80.03780599355808</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,13 +24895,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1101441.11570589</v>
+        <v>1103389.596007193</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1320063.425815945</v>
+        <v>1317888.696099813</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1303633.438804256</v>
+        <v>1303633.438804257</v>
       </c>
     </row>
     <row r="6">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>102095.2487803889</v>
+        <v>102299.1296912762</v>
       </c>
       <c r="C2" t="n">
-        <v>122612.3012358467</v>
+        <v>122408.4203249594</v>
       </c>
       <c r="D2" t="n">
         <v>123156.2654796425</v>
@@ -26329,10 +26329,10 @@
         <v>121071.9899535009</v>
       </c>
       <c r="H2" t="n">
-        <v>121071.989953501</v>
+        <v>121071.9899535009</v>
       </c>
       <c r="I2" t="n">
-        <v>121071.9899535009</v>
+        <v>121071.9899535008</v>
       </c>
       <c r="J2" t="n">
         <v>121071.9899535009</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1324592.616629867</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>3947.344390015634</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>216562.4822237806</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
-        <v>952.888557018454</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13043.78970477443</v>
+        <v>12820.122927153</v>
       </c>
       <c r="C4" t="n">
-        <v>90114.05304721507</v>
+        <v>89338.26297207265</v>
       </c>
       <c r="D4" t="n">
         <v>92183.89891818169</v>
@@ -26430,34 +26430,34 @@
         <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.8641468304</v>
+        <v>12996.86414683033</v>
       </c>
       <c r="H4" t="n">
+        <v>12996.86414683038</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12996.86414683039</v>
+      </c>
+      <c r="J4" t="n">
         <v>12996.86414683044</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12996.86414683044</v>
-      </c>
-      <c r="J4" t="n">
-        <v>12996.8641468305</v>
       </c>
       <c r="K4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
-        <v>20987.72340992393</v>
+        <v>20987.7234099239</v>
       </c>
       <c r="M4" t="n">
-        <v>20987.72340992393</v>
+        <v>20987.7234099239</v>
       </c>
       <c r="N4" t="n">
         <v>20987.72340992389</v>
       </c>
       <c r="O4" t="n">
-        <v>20987.72340992393</v>
+        <v>20987.7234099239</v>
       </c>
       <c r="P4" t="n">
-        <v>20987.72340992389</v>
+        <v>20987.7234099239</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107642.9682537726</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26479,10 +26479,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1343184.125808026</v>
+        <v>-1347547.298454669</v>
       </c>
       <c r="C6" t="n">
-        <v>-79383.03676277731</v>
+        <v>-74876.24729441799</v>
       </c>
       <c r="D6" t="n">
-        <v>-76961.57399993249</v>
+        <v>-76961.57399993246</v>
       </c>
       <c r="E6" t="n">
-        <v>-318459.8658245921</v>
+        <v>-318494.6037500277</v>
       </c>
       <c r="F6" t="n">
-        <v>6952.595982763378</v>
+        <v>6917.858057327612</v>
       </c>
       <c r="G6" t="n">
-        <v>6952.595982763407</v>
+        <v>6917.858057327685</v>
       </c>
       <c r="H6" t="n">
-        <v>6952.595982763392</v>
+        <v>6917.85805732767</v>
       </c>
       <c r="I6" t="n">
-        <v>6952.595982763378</v>
+        <v>6917.858057327598</v>
       </c>
       <c r="J6" t="n">
-        <v>-209609.8862410173</v>
+        <v>-210613.3443399497</v>
       </c>
       <c r="K6" t="n">
-        <v>5999.707425744913</v>
+        <v>6917.858057327641</v>
       </c>
       <c r="L6" t="n">
-        <v>-20423.29177782872</v>
+        <v>-20423.29177782869</v>
       </c>
       <c r="M6" t="n">
-        <v>-86050.60171970873</v>
+        <v>-86050.60171970868</v>
       </c>
       <c r="N6" t="n">
         <v>-995.5737841967784</v>
       </c>
       <c r="O6" t="n">
-        <v>-995.5737841968221</v>
+        <v>-995.5737841967784</v>
       </c>
       <c r="P6" t="n">
-        <v>-995.5737841968075</v>
+        <v>-995.5737841967784</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1086.755407162286</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>827.6990193689926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1086.755407162286</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>3.021293431011827</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>827.6990193689926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>3.70243603330016</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>827.6990193689921</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
-        <v>3.702436033300387</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>827.6990193689926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
-        <v>3.70243603330016</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>244.6431119577877</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>211.6577305360392</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>137.2810468259681</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>240.094595019891</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>91.25484570058637</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>141.1952643437202</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>255.2817680088788</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28263,7 +28263,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-9.379164112033322e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28521,7 +28521,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -28536,7 +28536,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>3.110756097157719e-12</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-2.250999386887997e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-5.350800898672441e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30523,7 +30523,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.368865958441349</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
-        <v>44.74264849688748</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.4307048628103</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>370.8020371402618</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>555.7361331610842</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>689.4398147367339</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>767.1346347251651</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>779.5476751295867</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>736.1047642553355</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>628.2483859063145</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>471.7883737696336</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>274.4357762619417</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.55553302798235</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.12471073307702</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3495092766753079</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.337549366349069</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.57580572237127</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.48141458701839</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>220.8471530724794</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>377.462960617867</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>507.5455323732924</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>592.281696903446</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>607.9576310312871</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>556.1624582295524</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>446.3694048776569</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
-        <v>298.3861261325584</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.133108903673</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.41895423898378</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.42196433190699</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1537861425229651</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.959722865374615</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.42371783942159</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>58.93421126053843</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
-        <v>138.5524065819853</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>227.6841656317052</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3573430939678</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>307.1954669786771</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>299.8910453895538</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>276.9979191894956</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.0195727358533</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.1000664815053</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.11626629220765</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.15262484475577</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.373361333873351</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1068939744749791</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31838,7 +31838,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422586</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O12" t="n">
-        <v>485.1127032082907</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214699</v>
@@ -31862,7 +31862,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,34 +32075,34 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>339.9772972286962</v>
       </c>
       <c r="N15" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,37 +32309,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>512.9101366533177</v>
+        <v>576.0573465136297</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32546,16 +32546,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>553.3925020622929</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32789,22 +32789,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>500.7380235181008</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
         <v>375.5996128485291</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>491.5977325265315</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>610.054682604365</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>198.5607970756955</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>172.8142548092792</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>194.5189324111251</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>189.7561326135755</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>335.6462821161037</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>453.6733997667466</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>536.7884014978924</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
-        <v>550.1346115329957</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>506.0065528336487</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>397.015390151045</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>249.4826838951841</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>58.85023844780955</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.00952640581272</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>239.621521643508</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>368.9911525934182</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>450.1476629814277</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>476.6159189479538</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>413.5662137851079</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>312.3949974633267</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.4043520465369</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19322646531248</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
-        <v>205.4146738058223</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>318.9473683542839</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>346.7793439405177</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.0232177687824</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>301.5830471035353</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.2981320007468</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>77.93802322981087</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35495,13 +35495,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O12" t="n">
-        <v>342.5164587638463</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071396</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066779</v>
       </c>
       <c r="N15" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,10 +35814,10 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060474</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>370.3138922088733</v>
+        <v>433.4611020691852</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>414.8381222824187</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193518</v>
@@ -36437,22 +36437,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>366.7636161037705</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625076</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>59.99058959552271</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>349.0014880820871</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>471.5003028244908</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,13 +37233,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>55.96455263125101</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>27.13475084531527</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>55.9645526312509</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
